--- a/4. Control y Seguimiento/1.4.3 Seguimiento de Cronograma.xlsx
+++ b/4. Control y Seguimiento/1.4.3 Seguimiento de Cronograma.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\intec\OneDrive\Escritorio\intecTroquian\4. Control y Seguimiento\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Marcelo Twice\Desktop\Plataforma Web Intecil\4. Control y Seguimiento\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{82ECCCED-D995-4F22-B024-E8D8BC63ED34}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DC7E3EB8-4010-42AF-8866-F29C815D6C4C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -16,7 +16,7 @@
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">Hoja1!$A$1:$I$28</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">Hoja1!$A$1:$I$60</definedName>
   </definedNames>
   <calcPr calcId="162913"/>
   <extLst>
@@ -28,31 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="29">
-  <si>
-    <t>Proyecto</t>
-  </si>
-  <si>
-    <t>Plataforma Web Intecil</t>
-  </si>
-  <si>
-    <t>[Fecha]</t>
-  </si>
-  <si>
-    <t>Responsable</t>
-  </si>
-  <si>
-    <t>[Nombre del responsable]</t>
-  </si>
-  <si>
-    <t>Versión</t>
-  </si>
-  <si>
-    <t>[Número de versión del informe]</t>
-  </si>
-  <si>
-    <t>Fecha</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="281" uniqueCount="107">
   <si>
     <t>Estado</t>
   </si>
@@ -60,68 +36,326 @@
     <t>1. Avance del Proyecto</t>
   </si>
   <si>
-    <t>Tarea</t>
-  </si>
-  <si>
-    <t>Fecha de Inicio</t>
-  </si>
-  <si>
-    <t>Fecha Estimada de Fin</t>
-  </si>
-  <si>
-    <t>Fecha Real de Fin</t>
-  </si>
-  <si>
     <t>Comentarios</t>
   </si>
   <si>
-    <t>Análisis de Requisitos</t>
-  </si>
-  <si>
     <t>Completado</t>
   </si>
   <si>
-    <t>Sin comentarios</t>
-  </si>
-  <si>
-    <t>Desarrollo de Plataforma</t>
-  </si>
-  <si>
-    <t>—</t>
-  </si>
-  <si>
-    <t>En Progreso</t>
-  </si>
-  <si>
-    <t>Retraso por ajustes en funcionalidades</t>
-  </si>
-  <si>
-    <t>2. Variación del Cronograma</t>
-  </si>
-  <si>
-    <t>Retraso (Días)</t>
-  </si>
-  <si>
-    <t>Causa del Retraso</t>
-  </si>
-  <si>
-    <t>Acciones Correctivas</t>
-  </si>
-  <si>
-    <t>Ajustes de funcionalidad</t>
-  </si>
-  <si>
-    <t>Reasignación de recursos</t>
-  </si>
-  <si>
     <t>Seguimiento del Cronograma</t>
+  </si>
+  <si>
+    <t>Nombre de tarea</t>
+  </si>
+  <si>
+    <t>Duración</t>
+  </si>
+  <si>
+    <t>Comienzo</t>
+  </si>
+  <si>
+    <t>Fin</t>
+  </si>
+  <si>
+    <t>Inicio</t>
+  </si>
+  <si>
+    <t>5 días?</t>
+  </si>
+  <si>
+    <t>lun 02-09-24</t>
+  </si>
+  <si>
+    <t>vie 06-09-24</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   1.1.1 Acta de Constitución del Proyecto</t>
+  </si>
+  <si>
+    <t>2 días</t>
+  </si>
+  <si>
+    <t>mar 03-09-24</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   1.1.2 Plan de Alcance</t>
+  </si>
+  <si>
+    <t>jue 05-09-24</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   1.1.3 EDT</t>
+  </si>
+  <si>
+    <t>1 día</t>
+  </si>
+  <si>
+    <t>mié 04-09-24</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   1.1.4 Diccionario EDT</t>
+  </si>
+  <si>
+    <t>1 día?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   1.1.5 Matriz RACI</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   1.1.6 Gestión de los Interesados</t>
+  </si>
+  <si>
+    <t>Planificacion</t>
+  </si>
+  <si>
+    <t>15,61 días?</t>
+  </si>
+  <si>
+    <t>lun 09-09-24</t>
+  </si>
+  <si>
+    <t>mié 02-10-24</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   1.2.1 Cronograma (Carta Gantt)</t>
+  </si>
+  <si>
+    <t>2,06 días?</t>
+  </si>
+  <si>
+    <t>mar 10-09-24</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   1.2.2.1 Toma de Requerimientos</t>
+  </si>
+  <si>
+    <t>3,17 días?</t>
+  </si>
+  <si>
+    <t>mié 11-09-24</t>
+  </si>
+  <si>
+    <t>vie 13-09-24</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   1.2.2.2 Documento de Requerimientos de Software</t>
+  </si>
+  <si>
+    <t>2 días?</t>
+  </si>
+  <si>
+    <t>lun 16-09-24</t>
+  </si>
+  <si>
+    <t>mar 17-09-24</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   1.2.2.3 Casos de Uso</t>
+  </si>
+  <si>
+    <t>3 días</t>
+  </si>
+  <si>
+    <t>lun 23-09-24</t>
+  </si>
+  <si>
+    <t>mié 25-09-24</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   1.2.2.4 Validación de los requisitos con los usuarios</t>
+  </si>
+  <si>
+    <t>jue 26-09-24</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   1.2.3 Informe BPM</t>
+  </si>
+  <si>
+    <t>lun 30-09-24</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   1.2.4 Plan de Riesgos</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   1.2.5 Matriz de Riesgos</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   1.2.6 Plan de Calidad</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   1.2.7 Informe Evaluacion de Proyectos</t>
+  </si>
+  <si>
+    <t>4 días</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   1.2.8 Plan de Comunicación</t>
+  </si>
+  <si>
+    <t>vie 27-09-24</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   1.2.9.1.1 Diagrama Entidad-Relación (ER)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   1.2.9.2.1 Diagrama de Casos de Uso</t>
+  </si>
+  <si>
+    <t>mar 01-10-24</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   1.2.9.2.2 Diagrama de Secuencia</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   1.2.9.2.3 Diagrama de Actividad</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   1.2.9.2.4 Diagrama de Componentes</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   1.2.9.2.5 Diagrama de Despliegue</t>
+  </si>
+  <si>
+    <t>Ejecucion</t>
+  </si>
+  <si>
+    <t>37,34 días?</t>
+  </si>
+  <si>
+    <t>jue 03-10-24</t>
+  </si>
+  <si>
+    <t>lun 25-11-24</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   1.3.1.1 Desarrollo Módulo A</t>
+  </si>
+  <si>
+    <t>4,28 días?</t>
+  </si>
+  <si>
+    <t>mié 09-10-24</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   1.3.1.2 Desarrollo Módulo B</t>
+  </si>
+  <si>
+    <t>4,28 días</t>
+  </si>
+  <si>
+    <t>jue 10-10-24</t>
+  </si>
+  <si>
+    <t>mié 16-10-24</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   1.3.1.3 Desarrollo Módulo C</t>
+  </si>
+  <si>
+    <t>mar 22-10-24</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   1.3.1.4 Desarrollo Módulo D</t>
+  </si>
+  <si>
+    <t>lun 28-10-24</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   1.3.1.5 Desarrollo Módulo E</t>
+  </si>
+  <si>
+    <t>mar 05-11-24</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   1.3.2.1 Plan de Pruebas</t>
+  </si>
+  <si>
+    <t>jue 07-11-24</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   1.3.2.2 Inventario de Pruebas</t>
+  </si>
+  <si>
+    <t>lun 11-11-24</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   1.3.2.3 Ejecución de los casos de prueba</t>
+  </si>
+  <si>
+    <t>5 días</t>
+  </si>
+  <si>
+    <t>lun 18-11-24</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   1.3.2.4 Informe final de pruebas</t>
+  </si>
+  <si>
+    <t>mar 19-11-24</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   1.3.3.1 Despliegue del portal web en un entorno de producción</t>
+  </si>
+  <si>
+    <t>mié 20-11-24</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   1.3.3.2 Verificación de que el portal web funcione correctamente en un entorno real con usuarios reales</t>
+  </si>
+  <si>
+    <t>vie 22-11-24</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   1.3.3.3 Transición completa a la producción y operación normal del portal web</t>
+  </si>
+  <si>
+    <t>Control</t>
+  </si>
+  <si>
+    <t>mar 26-11-24</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   1.4.1 Control de Riesgos</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   1.4.2 Control de Calidad</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   1.4.3 Seguimiento de Cronograma</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   1.4.4 Control de Alcance</t>
+  </si>
+  <si>
+    <t>Cierre</t>
+  </si>
+  <si>
+    <t>mié 27-11-24</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   1.5.1 Acta de Cierre del Proyecto</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   1.5.2 Informe final del Proyecto</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   1.5.3 Checklist del proyecto</t>
+  </si>
+  <si>
+    <t>En progreso</t>
+  </si>
+  <si>
+    <t>N/A</t>
+  </si>
+  <si>
+    <t>Existio un retraso significativo al desarollar el informe de evaluacion de proyectos</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -145,27 +379,53 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Arial"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color rgb="FF363636"/>
+      <name val="Segoe UI"/>
       <family val="2"/>
     </font>
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFDFE3E8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="5">
+  <borders count="7">
     <border>
       <left/>
       <right/>
@@ -225,11 +485,35 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB1BBCC"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB1BBCC"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB1BBCC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB1BBCC"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB1BBCC"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -237,30 +521,11 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -272,6 +537,18 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -613,10 +890,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="B2:H27"/>
+  <dimension ref="B2:H55"/>
   <sheetViews>
     <sheetView tabSelected="1" view="pageBreakPreview" zoomScaleNormal="85" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2:H4"/>
+      <selection activeCell="G50" sqref="G50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -631,33 +908,33 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B2" s="13"/>
-      <c r="C2" s="16" t="s">
-        <v>28</v>
-      </c>
-      <c r="D2" s="16"/>
-      <c r="E2" s="16"/>
-      <c r="F2" s="16"/>
-      <c r="G2" s="16"/>
-      <c r="H2" s="16"/>
+      <c r="B2" s="6"/>
+      <c r="C2" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="D2" s="9"/>
+      <c r="E2" s="9"/>
+      <c r="F2" s="9"/>
+      <c r="G2" s="9"/>
+      <c r="H2" s="9"/>
     </row>
     <row r="3" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B3" s="14"/>
-      <c r="C3" s="16"/>
-      <c r="D3" s="16"/>
-      <c r="E3" s="16"/>
-      <c r="F3" s="16"/>
-      <c r="G3" s="16"/>
-      <c r="H3" s="16"/>
+      <c r="B3" s="7"/>
+      <c r="C3" s="9"/>
+      <c r="D3" s="9"/>
+      <c r="E3" s="9"/>
+      <c r="F3" s="9"/>
+      <c r="G3" s="9"/>
+      <c r="H3" s="9"/>
     </row>
     <row r="4" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B4" s="15"/>
-      <c r="C4" s="16"/>
-      <c r="D4" s="16"/>
-      <c r="E4" s="16"/>
-      <c r="F4" s="16"/>
-      <c r="G4" s="16"/>
-      <c r="H4" s="16"/>
+      <c r="B4" s="8"/>
+      <c r="C4" s="9"/>
+      <c r="D4" s="9"/>
+      <c r="E4" s="9"/>
+      <c r="F4" s="9"/>
+      <c r="G4" s="9"/>
+      <c r="H4" s="9"/>
     </row>
     <row r="5" spans="2:8" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="B5" s="1"/>
@@ -669,205 +946,952 @@
       <c r="H5" s="2"/>
     </row>
     <row r="6" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B6" s="10" t="s">
-        <v>9</v>
+      <c r="B6" s="5" t="s">
+        <v>1</v>
       </c>
     </row>
     <row r="7" spans="2:8" ht="13.8" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="8" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B8" s="11" t="s">
+      <c r="B8" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="C8" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="D8" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="E8" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="F8" s="10" t="s">
+        <v>0</v>
+      </c>
+      <c r="G8" s="10" t="s">
+        <v>2</v>
+      </c>
+      <c r="H8" s="3"/>
+    </row>
+    <row r="9" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B9" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="C9" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="C8" s="11" t="s">
+      <c r="D9" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="D8" s="11" t="s">
+      <c r="E9" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="E8" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="F8" s="11" t="s">
-        <v>8</v>
-      </c>
-      <c r="G8" s="11" t="s">
-        <v>14</v>
-      </c>
-      <c r="H8" s="9"/>
-    </row>
-    <row r="9" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B9" s="12" t="s">
-        <v>15</v>
-      </c>
-      <c r="C9" s="12" t="s">
-        <v>2</v>
-      </c>
-      <c r="D9" s="12" t="s">
-        <v>2</v>
-      </c>
-      <c r="E9" s="12" t="s">
-        <v>2</v>
-      </c>
-      <c r="F9" s="12" t="s">
-        <v>16</v>
-      </c>
-      <c r="G9" s="12" t="s">
-        <v>17</v>
-      </c>
-      <c r="H9" s="9"/>
+      <c r="F9" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="G9" s="4" t="s">
+        <v>105</v>
+      </c>
+      <c r="H9" s="4"/>
     </row>
     <row r="10" spans="2:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="B10" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="C10" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="D10" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="E10" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="F10" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="G10" s="4" t="s">
+        <v>105</v>
+      </c>
+      <c r="H10" s="4"/>
+    </row>
+    <row r="11" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B11" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="C11" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="D11" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="E11" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="F11" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="G11" s="4" t="s">
+        <v>105</v>
+      </c>
+      <c r="H11" s="4"/>
+    </row>
+    <row r="12" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B12" s="12" t="s">
         <v>18</v>
       </c>
-      <c r="C10" s="12" t="s">
-        <v>2</v>
-      </c>
-      <c r="D10" s="12" t="s">
-        <v>2</v>
-      </c>
-      <c r="E10" s="12" t="s">
+      <c r="C12" s="12" t="s">
         <v>19</v>
       </c>
-      <c r="F10" s="12" t="s">
+      <c r="D12" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="E12" s="12" t="s">
         <v>20</v>
       </c>
-      <c r="G10" s="12" t="s">
+      <c r="F12" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="G12" s="4" t="s">
+        <v>105</v>
+      </c>
+      <c r="H12" s="4"/>
+    </row>
+    <row r="13" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B13" s="12" t="s">
         <v>21</v>
       </c>
-      <c r="H10" s="3"/>
-    </row>
-    <row r="11" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B11" s="4"/>
-      <c r="C11" s="4"/>
-      <c r="D11" s="4"/>
-      <c r="E11" s="4"/>
-      <c r="F11" s="4"/>
-      <c r="G11" s="4"/>
-      <c r="H11" s="4"/>
-    </row>
-    <row r="12" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B12" s="8"/>
-      <c r="C12" s="9"/>
-      <c r="D12" s="9"/>
-      <c r="E12" s="9"/>
-      <c r="F12" s="9"/>
-      <c r="G12" s="9"/>
-      <c r="H12" s="9"/>
-    </row>
-    <row r="13" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B13" s="10" t="s">
+      <c r="C13" s="12" t="s">
         <v>22</v>
       </c>
-      <c r="F13" s="9"/>
-      <c r="G13" s="9"/>
-      <c r="H13" s="9"/>
+      <c r="D13" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="E13" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="F13" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="G13" s="4" t="s">
+        <v>105</v>
+      </c>
+      <c r="H13" s="4"/>
     </row>
     <row r="14" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="F14" s="9"/>
-      <c r="G14" s="9"/>
-      <c r="H14" s="9"/>
-    </row>
-    <row r="15" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B15" s="11" t="s">
-        <v>10</v>
-      </c>
-      <c r="C15" s="11" t="s">
+      <c r="B14" s="12" t="s">
         <v>23</v>
       </c>
-      <c r="D15" s="11" t="s">
+      <c r="C14" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="D14" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="E14" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="F14" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="G14" s="4" t="s">
+        <v>105</v>
+      </c>
+      <c r="H14" s="4"/>
+    </row>
+    <row r="15" spans="2:8" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="B15" s="12" t="s">
         <v>24</v>
       </c>
-      <c r="E15" s="11" t="s">
+      <c r="C15" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="D15" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="E15" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="F15" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="G15" s="4" t="s">
+        <v>105</v>
+      </c>
+      <c r="H15" s="4"/>
+    </row>
+    <row r="16" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B16" s="11" t="s">
         <v>25</v>
       </c>
-      <c r="F15" s="9"/>
-      <c r="G15" s="9"/>
-      <c r="H15" s="9"/>
-    </row>
-    <row r="16" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B16" s="12" t="s">
-        <v>18</v>
-      </c>
-      <c r="C16" s="12">
-        <v>3</v>
-      </c>
-      <c r="D16" s="12" t="s">
+      <c r="C16" s="11" t="s">
         <v>26</v>
       </c>
-      <c r="E16" s="12" t="s">
+      <c r="D16" s="11" t="s">
         <v>27</v>
       </c>
-      <c r="F16" s="9"/>
-      <c r="G16" s="9"/>
-      <c r="H16" s="9"/>
-    </row>
-    <row r="17" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B17" s="8"/>
-      <c r="C17" s="9"/>
-      <c r="D17" s="9"/>
-      <c r="E17" s="9"/>
-      <c r="F17" s="9"/>
-      <c r="G17" s="9"/>
-      <c r="H17" s="9"/>
-    </row>
-    <row r="18" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B18" s="9"/>
-      <c r="C18" s="9"/>
-      <c r="D18" s="9"/>
-      <c r="E18" s="9"/>
-      <c r="F18" s="9"/>
-      <c r="G18" s="9"/>
-      <c r="H18" s="9"/>
-    </row>
-    <row r="19" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B19" s="3"/>
-      <c r="C19" s="3"/>
-      <c r="D19" s="3"/>
-      <c r="E19" s="3"/>
-      <c r="F19" s="9"/>
-      <c r="G19" s="9"/>
-      <c r="H19" s="9"/>
+      <c r="E16" s="11" t="s">
+        <v>28</v>
+      </c>
+      <c r="F16" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="G16" s="4" t="s">
+        <v>105</v>
+      </c>
+      <c r="H16" s="4"/>
+    </row>
+    <row r="17" spans="2:8" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="B17" s="12" t="s">
+        <v>29</v>
+      </c>
+      <c r="C17" s="12" t="s">
+        <v>30</v>
+      </c>
+      <c r="D17" s="12" t="s">
+        <v>27</v>
+      </c>
+      <c r="E17" s="12" t="s">
+        <v>31</v>
+      </c>
+      <c r="F17" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="G17" s="4" t="s">
+        <v>105</v>
+      </c>
+      <c r="H17" s="4"/>
+    </row>
+    <row r="18" spans="2:8" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="B18" s="12" t="s">
+        <v>32</v>
+      </c>
+      <c r="C18" s="12" t="s">
+        <v>33</v>
+      </c>
+      <c r="D18" s="12" t="s">
+        <v>34</v>
+      </c>
+      <c r="E18" s="12" t="s">
+        <v>35</v>
+      </c>
+      <c r="F18" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="G18" s="4" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="19" spans="2:8" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="B19" s="12" t="s">
+        <v>36</v>
+      </c>
+      <c r="C19" s="12" t="s">
+        <v>37</v>
+      </c>
+      <c r="D19" s="12" t="s">
+        <v>38</v>
+      </c>
+      <c r="E19" s="12" t="s">
+        <v>39</v>
+      </c>
+      <c r="F19" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="G19" s="4" t="s">
+        <v>105</v>
+      </c>
     </row>
     <row r="20" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B20" s="4"/>
-      <c r="C20" s="4"/>
-      <c r="D20" s="4"/>
-      <c r="E20" s="4"/>
-      <c r="F20" s="9"/>
-      <c r="G20" s="9"/>
-      <c r="H20" s="9"/>
+      <c r="B20" s="12" t="s">
+        <v>40</v>
+      </c>
+      <c r="C20" s="12" t="s">
+        <v>41</v>
+      </c>
+      <c r="D20" s="12" t="s">
+        <v>42</v>
+      </c>
+      <c r="E20" s="12" t="s">
+        <v>43</v>
+      </c>
+      <c r="F20" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="G20" s="4" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="21" spans="2:8" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="B21" s="12" t="s">
+        <v>44</v>
+      </c>
+      <c r="C21" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="D21" s="12" t="s">
+        <v>43</v>
+      </c>
+      <c r="E21" s="12" t="s">
+        <v>45</v>
+      </c>
+      <c r="F21" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="G21" s="4" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="22" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B22" s="12" t="s">
+        <v>46</v>
+      </c>
+      <c r="C22" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="D22" s="12" t="s">
+        <v>45</v>
+      </c>
+      <c r="E22" s="12" t="s">
+        <v>47</v>
+      </c>
+      <c r="F22" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="G22" s="4" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="23" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B23" s="12" t="s">
+        <v>48</v>
+      </c>
+      <c r="C23" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="D23" s="12" t="s">
+        <v>45</v>
+      </c>
+      <c r="E23" s="12" t="s">
+        <v>47</v>
+      </c>
+      <c r="F23" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="G23" s="4" t="s">
+        <v>105</v>
+      </c>
     </row>
     <row r="24" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B24" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="C24" s="5" t="s">
-        <v>1</v>
+      <c r="B24" s="12" t="s">
+        <v>49</v>
+      </c>
+      <c r="C24" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="D24" s="12" t="s">
+        <v>45</v>
+      </c>
+      <c r="E24" s="12" t="s">
+        <v>47</v>
+      </c>
+      <c r="F24" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="G24" s="4" t="s">
+        <v>105</v>
       </c>
     </row>
     <row r="25" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B25" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="C25" s="7" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="26" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B26" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="C26" s="7" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="27" spans="2:8" ht="27.6" x14ac:dyDescent="0.3">
-      <c r="B27" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="C27" s="7" t="s">
-        <v>6</v>
+      <c r="B25" s="12" t="s">
+        <v>50</v>
+      </c>
+      <c r="C25" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="D25" s="12" t="s">
+        <v>45</v>
+      </c>
+      <c r="E25" s="12" t="s">
+        <v>47</v>
+      </c>
+      <c r="F25" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="G25" s="4" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="26" spans="2:8" ht="72" x14ac:dyDescent="0.3">
+      <c r="B26" s="12" t="s">
+        <v>51</v>
+      </c>
+      <c r="C26" s="12" t="s">
+        <v>52</v>
+      </c>
+      <c r="D26" s="12" t="s">
+        <v>45</v>
+      </c>
+      <c r="E26" s="12" t="s">
+        <v>28</v>
+      </c>
+      <c r="F26" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="G26" s="13" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="27" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B27" s="12" t="s">
+        <v>53</v>
+      </c>
+      <c r="C27" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="D27" s="12" t="s">
+        <v>45</v>
+      </c>
+      <c r="E27" s="12" t="s">
+        <v>54</v>
+      </c>
+      <c r="F27" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="G27" s="4" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="28" spans="2:8" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="B28" s="12" t="s">
+        <v>55</v>
+      </c>
+      <c r="C28" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="D28" s="12" t="s">
+        <v>47</v>
+      </c>
+      <c r="E28" s="12" t="s">
+        <v>28</v>
+      </c>
+      <c r="F28" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="G28" s="4" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="29" spans="2:8" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="B29" s="12" t="s">
+        <v>56</v>
+      </c>
+      <c r="C29" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="D29" s="12" t="s">
+        <v>54</v>
+      </c>
+      <c r="E29" s="12" t="s">
+        <v>57</v>
+      </c>
+      <c r="F29" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="G29" s="4" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="30" spans="2:8" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="B30" s="12" t="s">
+        <v>58</v>
+      </c>
+      <c r="C30" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="D30" s="12" t="s">
+        <v>54</v>
+      </c>
+      <c r="E30" s="12" t="s">
+        <v>57</v>
+      </c>
+      <c r="F30" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="G30" s="4" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="31" spans="2:8" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="B31" s="12" t="s">
+        <v>59</v>
+      </c>
+      <c r="C31" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="D31" s="12" t="s">
+        <v>54</v>
+      </c>
+      <c r="E31" s="12" t="s">
+        <v>57</v>
+      </c>
+      <c r="F31" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="G31" s="4" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="32" spans="2:8" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="B32" s="12" t="s">
+        <v>60</v>
+      </c>
+      <c r="C32" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="D32" s="12" t="s">
+        <v>57</v>
+      </c>
+      <c r="E32" s="12" t="s">
+        <v>28</v>
+      </c>
+      <c r="F32" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="G32" s="4" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="33" spans="2:7" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="B33" s="12" t="s">
+        <v>61</v>
+      </c>
+      <c r="C33" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="D33" s="12" t="s">
+        <v>57</v>
+      </c>
+      <c r="E33" s="12" t="s">
+        <v>28</v>
+      </c>
+      <c r="F33" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="G33" s="4" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="34" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B34" s="11" t="s">
+        <v>62</v>
+      </c>
+      <c r="C34" s="11" t="s">
+        <v>63</v>
+      </c>
+      <c r="D34" s="11" t="s">
+        <v>64</v>
+      </c>
+      <c r="E34" s="11" t="s">
+        <v>65</v>
+      </c>
+      <c r="F34" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="G34" s="4" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="35" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B35" s="12" t="s">
+        <v>66</v>
+      </c>
+      <c r="C35" s="12" t="s">
+        <v>67</v>
+      </c>
+      <c r="D35" s="12" t="s">
+        <v>64</v>
+      </c>
+      <c r="E35" s="12" t="s">
+        <v>68</v>
+      </c>
+      <c r="F35" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="G35" s="4" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="36" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B36" s="12" t="s">
+        <v>69</v>
+      </c>
+      <c r="C36" s="12" t="s">
+        <v>70</v>
+      </c>
+      <c r="D36" s="12" t="s">
+        <v>71</v>
+      </c>
+      <c r="E36" s="12" t="s">
+        <v>72</v>
+      </c>
+      <c r="F36" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="G36" s="4" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="37" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B37" s="12" t="s">
+        <v>73</v>
+      </c>
+      <c r="C37" s="12" t="s">
+        <v>70</v>
+      </c>
+      <c r="D37" s="12" t="s">
+        <v>72</v>
+      </c>
+      <c r="E37" s="12" t="s">
+        <v>74</v>
+      </c>
+      <c r="F37" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="G37" s="4" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="38" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B38" s="12" t="s">
+        <v>75</v>
+      </c>
+      <c r="C38" s="12" t="s">
+        <v>70</v>
+      </c>
+      <c r="D38" s="12" t="s">
+        <v>74</v>
+      </c>
+      <c r="E38" s="12" t="s">
+        <v>76</v>
+      </c>
+      <c r="F38" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="G38" s="4" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="39" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B39" s="12" t="s">
+        <v>77</v>
+      </c>
+      <c r="C39" s="12" t="s">
+        <v>70</v>
+      </c>
+      <c r="D39" s="12" t="s">
+        <v>76</v>
+      </c>
+      <c r="E39" s="12" t="s">
+        <v>78</v>
+      </c>
+      <c r="F39" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="G39" s="4" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="40" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B40" s="12" t="s">
+        <v>79</v>
+      </c>
+      <c r="C40" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="D40" s="12" t="s">
+        <v>78</v>
+      </c>
+      <c r="E40" s="12" t="s">
+        <v>80</v>
+      </c>
+      <c r="F40" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="G40" s="4" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="41" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B41" s="12" t="s">
+        <v>81</v>
+      </c>
+      <c r="C41" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="D41" s="12" t="s">
+        <v>80</v>
+      </c>
+      <c r="E41" s="12" t="s">
+        <v>82</v>
+      </c>
+      <c r="F41" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="G41" s="4" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="42" spans="2:7" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="B42" s="12" t="s">
+        <v>83</v>
+      </c>
+      <c r="C42" s="12" t="s">
+        <v>84</v>
+      </c>
+      <c r="D42" s="12" t="s">
+        <v>82</v>
+      </c>
+      <c r="E42" s="12" t="s">
+        <v>85</v>
+      </c>
+      <c r="F42" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="G42" s="4" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="43" spans="2:7" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="B43" s="12" t="s">
+        <v>86</v>
+      </c>
+      <c r="C43" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="D43" s="12" t="s">
+        <v>85</v>
+      </c>
+      <c r="E43" s="12" t="s">
+        <v>87</v>
+      </c>
+      <c r="F43" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="G43" s="4" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="44" spans="2:7" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="B44" s="12" t="s">
+        <v>88</v>
+      </c>
+      <c r="C44" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="D44" s="12" t="s">
+        <v>87</v>
+      </c>
+      <c r="E44" s="12" t="s">
+        <v>89</v>
+      </c>
+      <c r="F44" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="G44" s="4" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="45" spans="2:7" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="B45" s="12" t="s">
+        <v>90</v>
+      </c>
+      <c r="C45" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="D45" s="12" t="s">
+        <v>89</v>
+      </c>
+      <c r="E45" s="12" t="s">
+        <v>91</v>
+      </c>
+      <c r="F45" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="G45" s="4" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="46" spans="2:7" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="B46" s="12" t="s">
+        <v>92</v>
+      </c>
+      <c r="C46" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="D46" s="12" t="s">
+        <v>91</v>
+      </c>
+      <c r="E46" s="12" t="s">
+        <v>65</v>
+      </c>
+      <c r="F46" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="G46" s="4" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="47" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B47" s="11" t="s">
+        <v>93</v>
+      </c>
+      <c r="C47" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="D47" s="11" t="s">
+        <v>65</v>
+      </c>
+      <c r="E47" s="11" t="s">
+        <v>94</v>
+      </c>
+      <c r="F47" s="4" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="48" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B48" s="12" t="s">
+        <v>95</v>
+      </c>
+      <c r="C48" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="D48" s="12" t="s">
+        <v>65</v>
+      </c>
+      <c r="E48" s="12" t="s">
+        <v>94</v>
+      </c>
+      <c r="F48" s="4" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="49" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B49" s="12" t="s">
+        <v>96</v>
+      </c>
+      <c r="C49" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="D49" s="12" t="s">
+        <v>65</v>
+      </c>
+      <c r="E49" s="12" t="s">
+        <v>94</v>
+      </c>
+      <c r="F49" s="4" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="50" spans="2:6" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="B50" s="12" t="s">
+        <v>97</v>
+      </c>
+      <c r="C50" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="D50" s="12" t="s">
+        <v>65</v>
+      </c>
+      <c r="E50" s="12" t="s">
+        <v>94</v>
+      </c>
+      <c r="F50" s="4" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="51" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B51" s="12" t="s">
+        <v>98</v>
+      </c>
+      <c r="C51" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="D51" s="12" t="s">
+        <v>65</v>
+      </c>
+      <c r="E51" s="12" t="s">
+        <v>94</v>
+      </c>
+      <c r="F51" s="4" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="52" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B52" s="11" t="s">
+        <v>99</v>
+      </c>
+      <c r="C52" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="D52" s="11" t="s">
+        <v>94</v>
+      </c>
+      <c r="E52" s="11" t="s">
+        <v>100</v>
+      </c>
+      <c r="F52" s="4" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="53" spans="2:6" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="B53" s="12" t="s">
+        <v>101</v>
+      </c>
+      <c r="C53" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="D53" s="12" t="s">
+        <v>94</v>
+      </c>
+      <c r="E53" s="12" t="s">
+        <v>100</v>
+      </c>
+      <c r="F53" s="4" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="54" spans="2:6" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="B54" s="12" t="s">
+        <v>102</v>
+      </c>
+      <c r="C54" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="D54" s="12" t="s">
+        <v>94</v>
+      </c>
+      <c r="E54" s="12" t="s">
+        <v>100</v>
+      </c>
+      <c r="F54" s="4" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="55" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B55" s="12" t="s">
+        <v>103</v>
+      </c>
+      <c r="C55" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="D55" s="12" t="s">
+        <v>94</v>
+      </c>
+      <c r="E55" s="12" t="s">
+        <v>100</v>
+      </c>
+      <c r="F55" s="4" t="s">
+        <v>104</v>
       </c>
     </row>
   </sheetData>
